--- a/Friobom/Engineering/data/excel_files/3114-322_06_F.xlsx
+++ b/Friobom/Engineering/data/excel_files/3114-322_06_F.xlsx
@@ -535,31 +535,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="G2" t="n">
-        <v>8383</v>
+        <v>8758</v>
       </c>
       <c r="H2" t="n">
-        <v>82716.28</v>
+        <v>86491.38</v>
       </c>
       <c r="I2" t="n">
         <v>10.13</v>
       </c>
       <c r="J2" t="n">
-        <v>1676.6</v>
+        <v>1751.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.92</v>
+        <v>4.09</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8383</v>
+        <v>8758</v>
       </c>
       <c r="N2" t="n">
-        <v>349.2916666666667</v>
+        <v>364.9166666666667</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -590,19 +590,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G3" t="n">
-        <v>1712</v>
+        <v>1771</v>
       </c>
       <c r="H3" t="n">
-        <v>39790.19</v>
+        <v>41158.79</v>
       </c>
       <c r="I3" t="n">
-        <v>23.78</v>
+        <v>23.76</v>
       </c>
       <c r="J3" t="n">
-        <v>856</v>
+        <v>885.5</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1712</v>
+        <v>1771</v>
       </c>
       <c r="N3" t="n">
-        <v>142.6666666666667</v>
+        <v>147.5833333333333</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
@@ -700,19 +700,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H5" t="n">
-        <v>2648.94</v>
+        <v>2737.98</v>
       </c>
       <c r="I5" t="n">
-        <v>13.32</v>
+        <v>13.38</v>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="K5" t="n">
         <v>0.11</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="N5" t="n">
-        <v>8.333333333333334</v>
+        <v>8.583333333333334</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -732,11 +732,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>113435</v>
+        <v>113442</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MANTEIGA COMUM C/S PT CABECA TOURO 500G</t>
+          <t>MANTEIGA 1ª QUALID C/S LT TOURINHO 200G</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -746,40 +746,40 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20152</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CX12X500G</t>
+          <t>CX24X200G</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" t="n">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="H6" t="n">
-        <v>2083.33</v>
+        <v>2222.58</v>
       </c>
       <c r="I6" t="n">
-        <v>27.17</v>
+        <v>13.33</v>
       </c>
       <c r="J6" t="n">
-        <v>38.5</v>
+        <v>34</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="N6" t="n">
-        <v>6.416666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -787,11 +787,11 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>113442</v>
+        <v>113435</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MANTEIGA 1ª QUALID C/S LT TOURINHO 200G</t>
+          <t>MANTEIGA COMUM C/S PT CABECA TOURO 500G</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -801,40 +801,40 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20152</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CX24X200G</t>
+          <t>CX12X500G</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="H7" t="n">
-        <v>2057.1</v>
+        <v>2083.33</v>
       </c>
       <c r="I7" t="n">
-        <v>13.3</v>
+        <v>27.17</v>
       </c>
       <c r="J7" t="n">
-        <v>31.6</v>
+        <v>38.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="N7" t="n">
-        <v>6.583333333333333</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
@@ -975,19 +975,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H10" t="n">
-        <v>1133.49</v>
+        <v>1340.19</v>
       </c>
       <c r="I10" t="n">
-        <v>32.05</v>
+        <v>32.4</v>
       </c>
       <c r="J10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K10" t="n">
         <v>0.01</v>
@@ -996,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
@@ -1030,19 +1030,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
-        <v>309.97</v>
+        <v>369.37</v>
       </c>
       <c r="I11" t="n">
-        <v>8.550000000000001</v>
+        <v>8.68</v>
       </c>
       <c r="J11" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="K11" t="n">
         <v>0.01</v>
@@ -1051,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N11" t="n">
-        <v>1.541666666666667</v>
+        <v>1.791666666666667</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
